--- a/JXler/Excel/Request.xlsx
+++ b/JXler/Excel/Request.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Implem\JXler\JXler\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3345609-991F-4779-8AE4-D78AE53F6C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6439A9C9-D913-483E-886E-EA2C23264C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16005" yWindow="1155" windowWidth="32820" windowHeight="29070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -112,18 +112,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>content-type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>application/json</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ApiVersion</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,7 +132,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://localhost/api/items/299519/get</t>
+    <t>get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.data.go.jp/data/api/action/group_show?id=gr_1300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContentType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -496,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -510,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -531,18 +531,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D0A90A-3110-4672-9385-04B7F7733546}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -564,21 +564,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6231EF36-84F4-4281-BEFD-695F5A345A10}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -589,7 +587,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
